--- a/b2/diploma-applications.xlsx
+++ b/b2/diploma-applications.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -439,6 +439,9 @@
       <c r="L1" t="str">
         <v>Submission Date</v>
       </c>
+      <c r="M1" t="str">
+        <v>MongoDB ID</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -744,9 +747,173 @@
         <v>30/10/2025, 11:22:33 am</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>a</v>
+      </c>
+      <c r="B10" t="str">
+        <v>06@gmail.com</v>
+      </c>
+      <c r="C10" t="str">
+        <v>9234556789</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Intermediate</v>
+      </c>
+      <c r="E10" t="str">
+        <v>2025</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="G10" t="str">
+        <v>diploma</v>
+      </c>
+      <c r="H10" t="str">
+        <v>h</v>
+      </c>
+      <c r="I10" t="str">
+        <v>No</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="K10" t="str">
+        <v>http://localhost:5173/services/applyfordiplomacourses</v>
+      </c>
+      <c r="L10" t="str">
+        <v>30/10/2025, 11:53:01 am</v>
+      </c>
+      <c r="M10" t="str">
+        <v>69030445f93737e112a11a29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>a7-</v>
+      </c>
+      <c r="B11" t="str">
+        <v>06@gmail.com</v>
+      </c>
+      <c r="C11" t="str">
+        <v>9234556789</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Intermediate</v>
+      </c>
+      <c r="E11" t="str">
+        <v>2025</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="G11" t="str">
+        <v>diploma</v>
+      </c>
+      <c r="H11" t="str">
+        <v>h</v>
+      </c>
+      <c r="I11" t="str">
+        <v>No</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="K11" t="str">
+        <v>http://localhost:5173/services/applyfordiplomacourses</v>
+      </c>
+      <c r="L11" t="str">
+        <v>30/10/2025, 12:02:08 pm</v>
+      </c>
+      <c r="M11" t="str">
+        <v>69030668f93737e112a11a2b</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>zxc</v>
+      </c>
+      <c r="B12" t="str">
+        <v>06@gmail.com</v>
+      </c>
+      <c r="C12" t="str">
+        <v>9234556789</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Intermediate</v>
+      </c>
+      <c r="E12" t="str">
+        <v>2025</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="G12" t="str">
+        <v>diploma</v>
+      </c>
+      <c r="H12" t="str">
+        <v>c</v>
+      </c>
+      <c r="I12" t="str">
+        <v>No</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="K12" t="str">
+        <v>http://localhost:5173/services/applyfordiplomacourses</v>
+      </c>
+      <c r="L12" t="str">
+        <v>30/10/2025, 12:10:57 pm</v>
+      </c>
+      <c r="M12" t="str">
+        <v>690308799328a4f76be046ec</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>mnb</v>
+      </c>
+      <c r="B13" t="str">
+        <v>06@gmail.com</v>
+      </c>
+      <c r="C13" t="str">
+        <v>9234556789</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Intermediate</v>
+      </c>
+      <c r="E13" t="str">
+        <v>2025</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="G13" t="str">
+        <v>diploma</v>
+      </c>
+      <c r="H13" t="str">
+        <v>f</v>
+      </c>
+      <c r="I13" t="str">
+        <v>No</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="K13" t="str">
+        <v>http://localhost:5173/services/applyfordiplomacourses</v>
+      </c>
+      <c r="L13" t="str">
+        <v>30/10/2025, 12:30:46 pm</v>
+      </c>
+      <c r="M13" t="str">
+        <v>69030d1e056dd521ba1b1baf</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/b2/diploma-applications.xlsx
+++ b/b2/diploma-applications.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -911,9 +911,132 @@
         <v>69030d1e056dd521ba1b1baf</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>123</v>
+      </c>
+      <c r="B14" t="str">
+        <v>06@gmail.com</v>
+      </c>
+      <c r="C14" t="str">
+        <v>9234556789</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Intermediate</v>
+      </c>
+      <c r="E14" t="str">
+        <v>2025</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="G14" t="str">
+        <v>diploma</v>
+      </c>
+      <c r="H14" t="str">
+        <v>123</v>
+      </c>
+      <c r="I14" t="str">
+        <v>No</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="K14" t="str">
+        <v>http://localhost:5173/services/applyfordiplomacourses</v>
+      </c>
+      <c r="L14" t="str">
+        <v>30/10/2025, 12:56:23 pm</v>
+      </c>
+      <c r="M14" t="str">
+        <v>6903131fda494cab6d21d5e4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>147</v>
+      </c>
+      <c r="B15" t="str">
+        <v>06@gmail.com</v>
+      </c>
+      <c r="C15" t="str">
+        <v>9234556789</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Intermediate</v>
+      </c>
+      <c r="E15" t="str">
+        <v>2025</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="G15" t="str">
+        <v>diploma</v>
+      </c>
+      <c r="H15" t="str">
+        <v>mx</v>
+      </c>
+      <c r="I15" t="str">
+        <v>No</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="K15" t="str">
+        <v>http://localhost:5173/services/applyfordiplomacourses</v>
+      </c>
+      <c r="L15" t="str">
+        <v>30/10/2025, 1:12:44 pm</v>
+      </c>
+      <c r="M15" t="str">
+        <v>690316f41b7f192c25d02345</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>-==</v>
+      </c>
+      <c r="B16" t="str">
+        <v>06@gmail.com</v>
+      </c>
+      <c r="C16" t="str">
+        <v>9234556789</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Intermediate</v>
+      </c>
+      <c r="E16" t="str">
+        <v>2025</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="G16" t="str">
+        <v>diploma</v>
+      </c>
+      <c r="H16" t="str">
+        <v>n</v>
+      </c>
+      <c r="I16" t="str">
+        <v>No</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="K16" t="str">
+        <v>http://localhost:5173/services/applyfordiplomacourses</v>
+      </c>
+      <c r="L16" t="str">
+        <v>30/10/2025, 1:36:08 pm</v>
+      </c>
+      <c r="M16" t="str">
+        <v>69031c7063de7ef743a0e666</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/b2/diploma-applications.xlsx
+++ b/b2/diploma-applications.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1034,9 +1034,50 @@
         <v>69031c7063de7ef743a0e666</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>fatima3</v>
+      </c>
+      <c r="B17" t="str">
+        <v>06@gmail.com</v>
+      </c>
+      <c r="C17" t="str">
+        <v>9234556789</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Intermediate</v>
+      </c>
+      <c r="E17" t="str">
+        <v>2024</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="G17" t="str">
+        <v>diploma</v>
+      </c>
+      <c r="H17" t="str">
+        <v>nj</v>
+      </c>
+      <c r="I17" t="str">
+        <v>No</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="K17" t="str">
+        <v>http://localhost:5173/services/applyfordiplomacourses</v>
+      </c>
+      <c r="L17" t="str">
+        <v>30/10/2025, 2:39:14 pm</v>
+      </c>
+      <c r="M17" t="str">
+        <v>69032b3a322bf809ad24b953</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M17"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/b2/diploma-applications.xlsx
+++ b/b2/diploma-applications.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1075,9 +1075,50 @@
         <v>69032b3a322bf809ad24b953</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>yamuna2</v>
+      </c>
+      <c r="B18" t="str">
+        <v>06@gmail.com</v>
+      </c>
+      <c r="C18" t="str">
+        <v>9234556789</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Intermediate</v>
+      </c>
+      <c r="E18" t="str">
+        <v>2025</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="G18" t="str">
+        <v>diploma</v>
+      </c>
+      <c r="H18" t="str">
+        <v>yam1</v>
+      </c>
+      <c r="I18" t="str">
+        <v>No</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="K18" t="str">
+        <v>http://localhost:5173/services/applyfordiplomacourses</v>
+      </c>
+      <c r="L18" t="str">
+        <v>30/10/2025, 5:49:36 pm</v>
+      </c>
+      <c r="M18" t="str">
+        <v>690357d8725598287be63b3e</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M18"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/b2/diploma-applications.xlsx
+++ b/b2/diploma-applications.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1116,9 +1116,50 @@
         <v>690357d8725598287be63b3e</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>kashvi</v>
+      </c>
+      <c r="B19" t="str">
+        <v>06@gmail.com</v>
+      </c>
+      <c r="C19" t="str">
+        <v>9234556789</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Polytechnic</v>
+      </c>
+      <c r="E19" t="str">
+        <v>2025</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="G19" t="str">
+        <v>diploma</v>
+      </c>
+      <c r="H19" t="str">
+        <v>hi xgs</v>
+      </c>
+      <c r="I19" t="str">
+        <v>No</v>
+      </c>
+      <c r="J19" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="K19" t="str">
+        <v>http://localhost:5173/services/applyfordiplomacourses</v>
+      </c>
+      <c r="L19" t="str">
+        <v>31/10/2025, 10:22:56 am</v>
+      </c>
+      <c r="M19" t="str">
+        <v>690440a8ef33a6f1211b7779</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M19"/>
   </ignoredErrors>
 </worksheet>
 </file>